--- a/target/classes/com/example/school_management/result_excel/class_one - Copy (3).xlsx
+++ b/target/classes/com/example/school_management/result_excel/class_one - Copy (3).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tech Land\Desktop\result\src\main\resources\com\example\result\result_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tech Land\Desktop\School-Management-Software\src\main\resources\com\example\school_management\result_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EC7995-8B6F-4392-BA5E-414C413505BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824A9177-FCAC-48A4-82B9-3898F8180477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51B4F0A7-09A5-40BE-8D02-23E0B309A2D3}"/>
+    <workbookView xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="8964" xr2:uid="{51B4F0A7-09A5-40BE-8D02-23E0B309A2D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>English</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Math</t>
   </si>
   <si>
-    <t>Drawing</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -54,6 +51,12 @@
   </si>
   <si>
     <t>Banlgla</t>
+  </si>
+  <si>
+    <t>Dip</t>
+  </si>
+  <si>
+    <t>Three</t>
   </si>
 </sst>
 </file>
@@ -405,26 +408,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90AAF5D-48D6-4C11-A71F-0C1BBBB93C6B}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -432,8 +435,25 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
